--- a/assets/downloads/Config Maker 2024.9.7 EN by KJ.xlsx
+++ b/assets/downloads/Config Maker 2024.9.7 EN by KJ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\configmaker\assets\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{B507634B-3E99-492A-9423-1EEEFBAE2126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CB07C25-75B1-46EE-A79B-10DE46CFE978}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{7D65274E-D5AA-F74C-9F18-359692260D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5170" yWindow="340" windowWidth="13680" windowHeight="11710" xr2:uid="{8947F335-7243-4BC9-9D88-00188AB47FC0}"/>
   </bookViews>
@@ -269,7 +269,7 @@
     <numFmt numFmtId="164" formatCode="[Red]\▲\ 0.00;[Green]\ \▼\ 0.00"/>
     <numFmt numFmtId="165" formatCode="[Red]\▲\ 0.00;[Color50]\ \▼\ 0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1424,8 +1424,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1474,8 +1479,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1524,8 +1534,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1574,8 +1589,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1624,8 +1644,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1674,8 +1699,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1724,8 +1754,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1774,8 +1809,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1824,8 +1864,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1874,8 +1919,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1924,8 +1974,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -1974,8 +2029,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2249,8 +2309,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2299,8 +2364,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2349,8 +2419,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2399,8 +2474,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2449,8 +2529,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2499,8 +2584,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2549,8 +2639,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2599,8 +2694,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2649,8 +2749,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -2699,8 +2804,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3114,8 +3224,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3164,8 +3279,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3214,8 +3334,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3264,8 +3389,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3314,8 +3444,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3364,8 +3499,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3414,8 +3554,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3464,8 +3609,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3514,8 +3664,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3564,8 +3719,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3614,8 +3774,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3664,8 +3829,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3939,8 +4109,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -3989,8 +4164,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4039,8 +4219,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4089,8 +4274,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4139,8 +4329,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4189,8 +4384,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4239,8 +4439,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4289,8 +4494,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4339,8 +4549,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4389,8 +4604,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4484,8 +4704,13 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
             <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -4823,19 +5048,19 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="56" customWidth="1"/>
-    <col min="3" max="4" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.91796875" customWidth="1"/>
+    <col min="2" max="2" width="55.9609375" customWidth="1"/>
+    <col min="3" max="4" width="6.58984375" customWidth="1"/>
+    <col min="5" max="5" width="10.0859375" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="9.14453125" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.14453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.5" customHeight="1">
+    <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -4847,7 +5072,7 @@
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1">
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -4861,7 +5086,7 @@
       <c r="G2" s="47"/>
       <c r="H2" s="48"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4888,7 +5113,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="16" t="s">
         <v>10</v>
@@ -4909,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="16" t="s">
         <v>11</v>
@@ -4930,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="16" t="s">
         <v>12</v>
@@ -4951,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="16" t="s">
         <v>13</v>
@@ -4972,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="16" t="s">
         <v>14</v>
@@ -4993,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="16" t="s">
         <v>15</v>
@@ -5014,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="16" t="s">
         <v>16</v>
@@ -5035,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="16" t="s">
         <v>17</v>
@@ -5056,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="16" t="s">
         <v>18</v>
@@ -5077,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="16" t="s">
         <v>19</v>
@@ -5098,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="21.6" customHeight="1">
+    <row r="15" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="49" t="s">
         <v>20</v>
       </c>
@@ -5111,7 +5336,7 @@
       <c r="H15" s="49"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -5137,7 +5362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="16" t="s">
         <v>21</v>
@@ -5158,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="16" t="s">
         <v>22</v>
@@ -5178,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="16" t="s">
         <v>23</v>
@@ -5199,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="16" t="s">
         <v>24</v>
@@ -5219,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="16" t="s">
         <v>25</v>
@@ -5240,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="16" t="s">
         <v>26</v>
@@ -5261,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="21.6" customHeight="1">
+    <row r="24" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
         <v>27</v>
       </c>
@@ -5274,7 +5499,7 @@
       <c r="H24" s="49"/>
       <c r="I24" s="49"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -5303,7 +5528,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="16" t="s">
         <v>29</v>
@@ -5328,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="16" t="s">
         <v>30</v>
@@ -5353,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="16" t="s">
         <v>31</v>
@@ -5378,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="16" t="s">
         <v>32</v>
@@ -5403,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="16" t="s">
         <v>33</v>
@@ -5428,15 +5653,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C31" s="4"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C32" s="4"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" ht="20.45" customHeight="1">
+    <row r="33" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="38" t="s">
         <v>34</v>
       </c>
@@ -5450,7 +5675,7 @@
       <c r="H33" s="40"/>
       <c r="I33" s="41"/>
     </row>
-    <row r="34" spans="1:9" ht="20.45" customHeight="1">
+    <row r="34" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>36</v>
       </c>
@@ -5470,7 +5695,7 @@
       <c r="H34" s="36"/>
       <c r="I34" s="37"/>
     </row>
-    <row r="35" spans="1:9" ht="20.45" customHeight="1">
+    <row r="35" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>38</v>
       </c>
@@ -5487,7 +5712,7 @@
       <c r="H35" s="36"/>
       <c r="I35" s="37"/>
     </row>
-    <row r="36" spans="1:9" ht="20.45" customHeight="1">
+    <row r="36" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
@@ -5504,7 +5729,7 @@
       <c r="H36" s="36"/>
       <c r="I36" s="37"/>
     </row>
-    <row r="37" spans="1:9" ht="20.45" customHeight="1">
+    <row r="37" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -5521,7 +5746,7 @@
       <c r="H37" s="36"/>
       <c r="I37" s="37"/>
     </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>44</v>
       </c>
@@ -5531,8 +5756,8 @@
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
     </row>
-    <row r="39" spans="1:9" ht="20.45" customHeight="1"/>
-    <row r="40" spans="1:9" ht="20.45" customHeight="1">
+    <row r="39" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="14" t="s">
         <v>45</v>
       </c>
@@ -5540,7 +5765,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.45" customHeight="1">
+    <row r="41" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="32" t="s">
         <v>47</v>
       </c>
@@ -6080,20 +6305,20 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="56" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.91796875" customWidth="1"/>
+    <col min="2" max="2" width="55.9609375" customWidth="1"/>
+    <col min="3" max="3" width="6.3203125" customWidth="1"/>
+    <col min="4" max="4" width="4.4375" customWidth="1"/>
+    <col min="5" max="5" width="10.0859375" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="9.14453125" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.14453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="34.5" customHeight="1">
+    <row r="1" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>48</v>
       </c>
@@ -6105,7 +6330,7 @@
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
     </row>
-    <row r="2" spans="1:17" ht="24" customHeight="1">
+    <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -6119,7 +6344,7 @@
       <c r="G2" s="47"/>
       <c r="H2" s="48"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6155,7 +6380,7 @@
       <c r="P3" s="71"/>
       <c r="Q3" s="71"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="21" t="s">
         <v>10</v>
@@ -6183,7 +6408,7 @@
       <c r="P4" s="71"/>
       <c r="Q4" s="71"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
       <c r="B5" s="21" t="s">
         <v>11</v>
@@ -6213,7 +6438,7 @@
       <c r="P5" s="72"/>
       <c r="Q5" s="72"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="20"/>
       <c r="B6" s="21" t="s">
         <v>12</v>
@@ -6243,7 +6468,7 @@
       <c r="P6" s="73"/>
       <c r="Q6" s="73"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="21" t="s">
         <v>13</v>
@@ -6273,7 +6498,7 @@
       <c r="P7" s="74"/>
       <c r="Q7" s="74"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="21" t="s">
         <v>14</v>
@@ -6303,7 +6528,7 @@
       <c r="P8" s="67"/>
       <c r="Q8" s="67"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
         <v>15</v>
@@ -6333,7 +6558,7 @@
       <c r="P9" s="68"/>
       <c r="Q9" s="68"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
         <v>16</v>
@@ -6363,7 +6588,7 @@
       <c r="P10" s="69"/>
       <c r="Q10" s="69"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
         <v>17</v>
@@ -6393,7 +6618,7 @@
       <c r="P11" s="70"/>
       <c r="Q11" s="70"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="21" t="s">
         <v>18</v>
@@ -6414,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="s">
         <v>19</v>
@@ -6435,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="21.6" customHeight="1">
+    <row r="15" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="49" t="s">
         <v>20</v>
       </c>
@@ -6448,7 +6673,7 @@
       <c r="H15" s="49"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -6474,7 +6699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
         <v>21</v>
@@ -6504,7 +6729,7 @@
       <c r="P17" s="59"/>
       <c r="Q17" s="59"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
         <v>22</v>
@@ -6533,7 +6758,7 @@
       <c r="P18" s="59"/>
       <c r="Q18" s="59"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
         <v>23</v>
@@ -6554,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
         <v>24</v>
@@ -6574,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
         <v>25</v>
@@ -6595,7 +6820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="21" t="s">
         <v>26</v>
@@ -6616,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="21.6" customHeight="1">
+    <row r="24" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
         <v>27</v>
       </c>
@@ -6638,7 +6863,7 @@
       <c r="P24" s="60"/>
       <c r="Q24" s="60"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -6676,7 +6901,7 @@
       <c r="P25" s="62"/>
       <c r="Q25" s="63"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="21" t="s">
         <v>29</v>
@@ -6710,7 +6935,7 @@
       <c r="P26" s="65"/>
       <c r="Q26" s="66"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="21" t="s">
         <v>30</v>
@@ -6744,7 +6969,7 @@
       <c r="P27" s="51"/>
       <c r="Q27" s="52"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
       <c r="B28" s="21" t="s">
         <v>31</v>
@@ -6778,7 +7003,7 @@
       <c r="P28" s="51"/>
       <c r="Q28" s="52"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="21" t="s">
         <v>32</v>
@@ -6812,7 +7037,7 @@
       <c r="P29" s="51"/>
       <c r="Q29" s="52"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="21" t="s">
         <v>33</v>
@@ -6846,7 +7071,7 @@
       <c r="P30" s="51"/>
       <c r="Q30" s="52"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C31" s="4"/>
       <c r="I31" s="5"/>
       <c r="K31" s="53" t="s">
@@ -6859,7 +7084,7 @@
       <c r="P31" s="54"/>
       <c r="Q31" s="55"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C32" s="4"/>
       <c r="I32" s="5"/>
       <c r="K32" s="56" t="s">
@@ -6872,7 +7097,7 @@
       <c r="P32" s="57"/>
       <c r="Q32" s="58"/>
     </row>
-    <row r="33" spans="1:9" ht="20.45" customHeight="1">
+    <row r="33" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="38" t="s">
         <v>34</v>
       </c>
@@ -6886,7 +7111,7 @@
       <c r="H33" s="40"/>
       <c r="I33" s="41"/>
     </row>
-    <row r="34" spans="1:9" ht="20.45" customHeight="1">
+    <row r="34" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>36</v>
       </c>
@@ -6902,7 +7127,7 @@
       <c r="H34" s="36"/>
       <c r="I34" s="37"/>
     </row>
-    <row r="35" spans="1:9" ht="20.45" customHeight="1">
+    <row r="35" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>38</v>
       </c>
@@ -6918,7 +7143,7 @@
       <c r="H35" s="36"/>
       <c r="I35" s="37"/>
     </row>
-    <row r="36" spans="1:9" ht="20.45" customHeight="1">
+    <row r="36" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
@@ -6934,7 +7159,7 @@
       <c r="H36" s="36"/>
       <c r="I36" s="37"/>
     </row>
-    <row r="37" spans="1:9" ht="20.45" customHeight="1">
+    <row r="37" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -6950,7 +7175,7 @@
       <c r="H37" s="36"/>
       <c r="I37" s="37"/>
     </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>44</v>
       </c>
@@ -6960,8 +7185,8 @@
       <c r="C38" s="75"/>
       <c r="D38" s="75"/>
     </row>
-    <row r="39" spans="1:9" ht="20.45" customHeight="1"/>
-    <row r="40" spans="1:9" ht="20.45" customHeight="1">
+    <row r="39" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="14" t="s">
         <v>73</v>
       </c>
@@ -6969,7 +7194,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.45" customHeight="1">
+    <row r="41" spans="1:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="15" t="s">
         <v>47</v>
       </c>
